--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
@@ -46,6 +46,30 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>上午8:00-11:40</t>
+  </si>
+  <si>
+    <t>主要看python自然语言处理这本书</t>
+  </si>
+  <si>
+    <t>下午14:00-18:00</t>
+  </si>
+  <si>
+    <t>在自己的python库中导入NLTK工具包</t>
+  </si>
+  <si>
+    <t>搞定</t>
+  </si>
+  <si>
+    <t>晚上19:00-21:30</t>
+  </si>
+  <si>
+    <t>主要在理解文本分类的SVM部分的概念以及原理</t>
+  </si>
+  <si>
+    <t>理解的不是很透彻</t>
   </si>
 </sst>
 </file>
@@ -76,40 +100,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,6 +123,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -129,8 +206,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,75 +233,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,19 +264,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,139 +408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +465,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,10 +487,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -483,15 +505,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,8 +542,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,7 +566,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1075,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1110,22 +1134,42 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:4">
       <c r="A8" s="2"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>日期</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>理解的不是很透彻</t>
+  </si>
+  <si>
+    <t>安装并且了解Anaconda3</t>
+  </si>
+  <si>
+    <t>通过电子书来学习文本分类需要的算法</t>
+  </si>
+  <si>
+    <t>基本上完成了</t>
+  </si>
+  <si>
+    <t>重点了解了决策树以及特征提取器的原理</t>
   </si>
 </sst>
 </file>
@@ -77,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,6 +111,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -115,11 +202,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,112 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,187 +264,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,11 +473,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,8 +514,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -509,17 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,17 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,7 +1087,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1178,22 +1190,42 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="3">
+        <v>43663</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:4">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:4">
       <c r="A12" s="2"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>日期</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>重点了解了决策树以及特征提取器的原理</t>
+  </si>
+  <si>
+    <t>调用bosonnlp接口实现关键词提取以及文本分类</t>
+  </si>
+  <si>
+    <t>研读数学之美电子书，并且了解python的一些进阶语法</t>
+  </si>
+  <si>
+    <t>书上的算法还是很难理解</t>
+  </si>
+  <si>
+    <t>学习使用Flask的WEB框架，并且调用NLP接口</t>
+  </si>
+  <si>
+    <t>基本搞定了</t>
   </si>
 </sst>
 </file>
@@ -111,6 +126,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -120,6 +143,59 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,55 +218,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,54 +239,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +279,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +488,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -484,41 +523,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,23 +545,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,8 +569,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,16 +1101,16 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1234,22 +1249,42 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:4">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:4">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" ht="42" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>日期</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>基本搞定了</t>
+  </si>
+  <si>
+    <t>重新建立新的项目并且导入flask以及调用nlp接口</t>
+  </si>
+  <si>
+    <t>有点小问题</t>
+  </si>
+  <si>
+    <t>学习Flask_SQLalchemy</t>
+  </si>
+  <si>
+    <t>继续学习数学之美</t>
+  </si>
+  <si>
+    <t>进展缓慢</t>
   </si>
 </sst>
 </file>
@@ -126,6 +141,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -134,96 +224,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -239,6 +240,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -246,9 +262,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,15 +279,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,13 +294,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,37 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,127 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,9 +505,68 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,65 +600,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,8 +1116,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1293,22 +1308,42 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:4">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>日期</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>进展缓慢</t>
+  </si>
+  <si>
+    <t>将springboot中使用hanlp接口</t>
+  </si>
+  <si>
+    <t>重新使用spring  以及   springboot  等java框架</t>
+  </si>
+  <si>
+    <t>阅读《数学之美》书籍</t>
   </si>
 </sst>
 </file>
@@ -121,8 +130,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -142,6 +151,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -150,7 +166,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,46 +232,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,62 +264,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,13 +303,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,31 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,121 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,41 +508,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +545,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -600,6 +583,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -608,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,133 +629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,7 +1126,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1352,22 +1361,42 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" ht="42" customHeight="1" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="3">
+        <v>43666</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>日期</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>阅读《数学之美》书籍</t>
+  </si>
+  <si>
+    <t>全体开会</t>
+  </si>
+  <si>
+    <t>使用springboot来将hanlp的调用起来并且使用vue的方法加入Echarts来展示</t>
+  </si>
+  <si>
+    <t>使用python调用pyhanlp的接口</t>
+  </si>
+  <si>
+    <t>进度有些慢</t>
   </si>
 </sst>
 </file>
@@ -130,8 +142,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -166,6 +178,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -173,7 +221,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,92 +274,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,187 +315,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +524,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -527,29 +572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +602,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,21 +621,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,7 +632,7 @@
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,8 +1137,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1405,22 +1417,42 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>日期</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>进度有些慢</t>
+  </si>
+  <si>
+    <t>使用百度的接口来调用文本分类与聚类等</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>搭建自己小组的前端框架以及加入vcharts来展示数据</t>
+  </si>
+  <si>
+    <t>学习使用springboot的技术来改进以及搭建过的后端</t>
+  </si>
+  <si>
+    <t>正在进行</t>
   </si>
 </sst>
 </file>
@@ -140,8 +155,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -170,7 +185,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,28 +215,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +275,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -250,49 +306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,187 +330,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +535,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,8 +575,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,21 +623,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -601,26 +636,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -629,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1461,22 +1476,42 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>日期</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>正在进行</t>
+  </si>
+  <si>
+    <t>继续学习springboot的建立</t>
+  </si>
+  <si>
+    <t>将前后端数据连接起来</t>
   </si>
 </sst>
 </file>
@@ -155,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -185,7 +191,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,100 +312,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,21 +326,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -330,121 +336,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,61 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,35 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,10 +571,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -607,17 +602,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,145 +650,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,10 +1156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1520,23 +1526,44 @@
       <c r="D32" s="2"/>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" ht="68" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>日期</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>将前后端数据连接起来</t>
+  </si>
+  <si>
+    <t>学习动态改变饼图数据</t>
+  </si>
+  <si>
+    <t>完成！</t>
+  </si>
+  <si>
+    <t>将全端框架优化改进</t>
+  </si>
+  <si>
+    <t>将后端改为python</t>
   </si>
 </sst>
 </file>
@@ -162,9 +174,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -184,6 +196,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -191,7 +217,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,39 +278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,24 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,16 +316,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,21 +338,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -336,91 +348,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,98 +532,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -546,6 +558,35 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -564,24 +605,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -602,13 +636,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,21 +665,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -650,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,137 +685,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,6 +830,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1156,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1563,7 +1592,80 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" ht="68" customHeight="1"/>
+    <row r="36" ht="42" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" ht="42" customHeight="1" spans="1:4">
+      <c r="A37" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" ht="42" customHeight="1" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" ht="42" customHeight="1" spans="1:4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" ht="42" customHeight="1" spans="1:4">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" ht="42" customHeight="1" spans="1:4">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" ht="42" customHeight="1" spans="1:4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" ht="42" customHeight="1" spans="1:4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" ht="42" customHeight="1" spans="1:4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>日期</t>
   </si>
@@ -166,6 +166,30 @@
   </si>
   <si>
     <t>将后端改为python</t>
+  </si>
+  <si>
+    <t>1.大致了解一下谷歌的BERT模型</t>
+  </si>
+  <si>
+    <t>2.学习使用springboot的配置文件进行精细化配置</t>
+  </si>
+  <si>
+    <t>1.开始了解并学习PyTorch</t>
+  </si>
+  <si>
+    <t>2.整合项目前后端</t>
+  </si>
+  <si>
+    <t>继续学习pytorch</t>
+  </si>
+  <si>
+    <t>开例会，小组内讨论</t>
+  </si>
+  <si>
+    <t>将小组的后端改为python接口</t>
+  </si>
+  <si>
+    <t>全力学习pytorch</t>
   </si>
 </sst>
 </file>
@@ -173,12 +197,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +219,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -203,12 +249,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -217,7 +271,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +324,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -263,8 +347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,36 +363,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -315,29 +370,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -348,19 +380,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,25 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,66 +542,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -474,66 +554,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -568,6 +600,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -579,9 +624,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,13 +657,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,36 +710,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,10 +718,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,137 +730,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,6 +880,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,10 +1251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1643,28 +1709,156 @@
       <c r="D40" s="6"/>
     </row>
     <row r="41" ht="42" customHeight="1" spans="1:4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="7">
+        <v>43672</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="42" ht="42" customHeight="1" spans="1:4">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" ht="42" customHeight="1" spans="1:4">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="44" ht="42" customHeight="1" spans="1:4">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" ht="42" customHeight="1" spans="1:4">
+      <c r="A45" s="10">
+        <v>43673</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" ht="42" customHeight="1" spans="1:4">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="42" customHeight="1" spans="1:4">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" ht="42" customHeight="1" spans="1:4">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" ht="42" customHeight="1" spans="1:4">
+      <c r="A49" s="13">
+        <v>43675</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" ht="42" customHeight="1" spans="1:4">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" ht="42" customHeight="1" spans="1:4">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" ht="42" customHeight="1" spans="1:4">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" ht="42" customHeight="1" spans="1:4">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" ht="42" customHeight="1" spans="1:4">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" ht="42" customHeight="1" spans="1:4">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+    </row>
+    <row r="56" ht="42" customHeight="1" spans="1:4">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>日期</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>全力学习pytorch</t>
+  </si>
+  <si>
+    <t>上午8:10-11:40</t>
+  </si>
+  <si>
+    <t>具体学习了pytorch的1.回归算法2.分类</t>
+  </si>
+  <si>
+    <t>下午14:10-6:30</t>
+  </si>
+  <si>
+    <t>3.基本的函数4.快速建立Sequential5.批训练等</t>
+  </si>
+  <si>
+    <t>神经网络优化</t>
   </si>
 </sst>
 </file>
@@ -199,8 +214,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -228,6 +243,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,14 +257,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,8 +277,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,35 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -307,14 +363,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -323,41 +371,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,181 +395,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,26 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -651,8 +646,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,17 +700,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,149 +733,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,19 +903,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,10 +1257,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1718,147 +1724,219 @@
       <c r="C41" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" ht="42" customHeight="1" spans="1:4">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="42" customHeight="1" spans="1:4">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" ht="42" customHeight="1" spans="1:4">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" ht="42" customHeight="1" spans="1:4">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <v>43673</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" ht="42" customHeight="1" spans="1:4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" ht="42" customHeight="1" spans="1:4">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" ht="42" customHeight="1" spans="1:4">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" ht="42" customHeight="1" spans="1:4">
-      <c r="A49" s="13">
+      <c r="A49" s="7">
         <v>43675</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" ht="42" customHeight="1" spans="1:4">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" ht="42" customHeight="1" spans="1:4">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="52" ht="42" customHeight="1" spans="1:4">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" ht="42" customHeight="1" spans="1:4">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="A53" s="7">
+        <v>43676</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" ht="42" customHeight="1" spans="1:4">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" ht="42" customHeight="1" spans="1:4">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" ht="42" customHeight="1" spans="1:4">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" ht="42" customHeight="1" spans="1:4">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" ht="42" customHeight="1" spans="1:4">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" ht="42" customHeight="1" spans="1:4">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" ht="42" customHeight="1" spans="1:4">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" ht="42" customHeight="1" spans="1:4">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" ht="42" customHeight="1" spans="1:4">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" ht="42" customHeight="1" spans="1:4">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" ht="42" customHeight="1" spans="1:4">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
   <si>
     <t>日期</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>神经网络优化</t>
+  </si>
+  <si>
+    <t>具体学习了tf-idf</t>
+  </si>
+  <si>
+    <t>神经网络的RNN的建立使用jieba的分词</t>
+  </si>
+  <si>
+    <t>以及并且使用jieba里的方法来求出语句的相似度</t>
+  </si>
+  <si>
+    <t>学习并且使用BERT模型，并且使用该模型进行文本分类</t>
   </si>
 </sst>
 </file>
@@ -212,9 +224,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -243,12 +255,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -256,22 +313,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,24 +360,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,76 +397,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -395,73 +407,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,109 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,6 +640,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -645,17 +666,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -672,6 +686,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,32 +737,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -733,145 +745,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1260,7 +1272,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="D58" sqref="D58:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1891,22 +1903,42 @@
       <c r="D56" s="8"/>
     </row>
     <row r="57" ht="42" customHeight="1" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="A57" s="7">
+        <v>43677</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" ht="42" customHeight="1" spans="1:4">
       <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" ht="42" customHeight="1" spans="1:4">
       <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" ht="42" customHeight="1" spans="1:4">
       <c r="A60" s="8"/>
@@ -1915,20 +1947,32 @@
       <c r="D60" s="8"/>
     </row>
     <row r="61" ht="42" customHeight="1" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="A61" s="7">
+        <v>43678</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" ht="42" customHeight="1" spans="1:4">
       <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="B62" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
     </row>
     <row r="63" ht="42" customHeight="1" spans="1:4">
       <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="B63" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
     </row>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
   <si>
     <t>日期</t>
   </si>
@@ -217,6 +217,33 @@
   </si>
   <si>
     <t>学习并且使用BERT模型，并且使用该模型进行文本分类</t>
+  </si>
+  <si>
+    <t>学习数学之美</t>
+  </si>
+  <si>
+    <t>学习python的基础知识</t>
+  </si>
+  <si>
+    <t>完成将小组项目部署到总体框架的任务</t>
+  </si>
+  <si>
+    <t>学习TF-IDF 的具体算法</t>
+  </si>
+  <si>
+    <t>学习simhash算法的概念，以及使用方法</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>学习使用django框架</t>
+  </si>
+  <si>
+    <t>解决Django运行报错：Couldn't import Django. Are you sure it's installed and available on your environment**  报错信息</t>
+  </si>
+  <si>
+    <t>使用虚拟环境创建的puyhon3.6n版本来安装Django</t>
   </si>
 </sst>
 </file>
@@ -224,9 +251,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -276,9 +303,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,8 +332,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +382,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,27 +410,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,52 +424,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -407,13 +434,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,13 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,13 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,133 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,47 +677,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -714,6 +700,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -729,6 +730,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -737,6 +753,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -745,145 +772,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,13 +1296,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:D59"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
@@ -1965,16 +1992,24 @@
       <c r="B62" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="C62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" ht="42" customHeight="1" spans="1:4">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="C63" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="64" ht="42" customHeight="1" spans="1:4">
       <c r="A64" s="8"/>
@@ -1982,6 +2017,303 @@
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
     </row>
+    <row r="65" ht="34" customHeight="1" spans="1:4">
+      <c r="A65" s="7">
+        <v>43679</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" ht="42" customHeight="1" spans="1:4">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" ht="42" customHeight="1" spans="1:4">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" ht="42" customHeight="1" spans="1:4">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" ht="42" customHeight="1" spans="1:4">
+      <c r="A69" s="7">
+        <v>43680</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" ht="42" customHeight="1" spans="1:4">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" ht="42" customHeight="1" spans="1:4">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" ht="42" customHeight="1" spans="1:4">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" ht="42" customHeight="1" spans="1:4">
+      <c r="A73" s="7">
+        <v>43682</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" ht="42" customHeight="1" spans="1:4">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" ht="42" customHeight="1" spans="1:7">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" ht="42" customHeight="1" spans="1:4">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" ht="42" customHeight="1" spans="1:4">
+      <c r="A77" s="7">
+        <v>43683</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" ht="42" customHeight="1" spans="1:4">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" ht="42" customHeight="1" spans="1:4">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" ht="42" customHeight="1" spans="1:4">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" ht="42" customHeight="1" spans="1:4">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" ht="42" customHeight="1" spans="1:4">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" ht="42" customHeight="1" spans="1:4">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" ht="42" customHeight="1" spans="1:4">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" ht="42" customHeight="1" spans="1:4">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" ht="42" customHeight="1" spans="1:4">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" ht="42" customHeight="1" spans="1:4">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" ht="42" customHeight="1" spans="1:4">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" ht="42" customHeight="1" spans="1:4">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" ht="42" customHeight="1" spans="1:4">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" ht="42" customHeight="1" spans="1:4">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" ht="42" customHeight="1" spans="1:4">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" ht="42" customHeight="1" spans="1:4">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" ht="42" customHeight="1" spans="1:4">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" ht="42" customHeight="1"/>
+    <row r="96" ht="42" customHeight="1"/>
+    <row r="97" ht="42" customHeight="1"/>
+    <row r="98" ht="42" customHeight="1"/>
+    <row r="99" ht="42" customHeight="1"/>
+    <row r="100" ht="42" customHeight="1"/>
+    <row r="101" ht="42" customHeight="1"/>
+    <row r="102" ht="42" customHeight="1"/>
+    <row r="103" ht="42" customHeight="1"/>
+    <row r="104" ht="42" customHeight="1"/>
+    <row r="105" ht="42" customHeight="1"/>
+    <row r="106" ht="42" customHeight="1"/>
+    <row r="107" ht="42" customHeight="1"/>
+    <row r="108" ht="42" customHeight="1"/>
+    <row r="109" ht="42" customHeight="1"/>
+    <row r="110" ht="42" customHeight="1"/>
+    <row r="111" ht="42" customHeight="1"/>
+    <row r="112" ht="42" customHeight="1"/>
+    <row r="113" ht="42" customHeight="1"/>
+    <row r="114" ht="42" customHeight="1"/>
+    <row r="115" ht="42" customHeight="1"/>
+    <row r="116" ht="42" customHeight="1"/>
+    <row r="117" ht="42" customHeight="1"/>
+    <row r="118" ht="42" customHeight="1"/>
+    <row r="119" ht="42" customHeight="1"/>
+    <row r="120" ht="42" customHeight="1"/>
+    <row r="121" ht="42" customHeight="1"/>
+    <row r="122" ht="42" customHeight="1"/>
+    <row r="123" ht="42" customHeight="1"/>
+    <row r="124" ht="42" customHeight="1"/>
+    <row r="125" ht="42" customHeight="1"/>
+    <row r="126" ht="42" customHeight="1"/>
+    <row r="127" ht="42" customHeight="1"/>
+    <row r="128" ht="42" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="76">
   <si>
     <t>日期</t>
   </si>
@@ -251,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -296,10 +296,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,25 +332,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,16 +386,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,7 +411,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,19 +434,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,163 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,6 +669,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -691,15 +711,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -715,17 +726,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,22 +750,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,137 +784,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +946,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1298,8 +1301,8 @@
   <sheetPr/>
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2197,22 +2200,42 @@
       <c r="D80" s="8"/>
     </row>
     <row r="81" ht="42" customHeight="1" spans="1:4">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="A81" s="7">
+        <v>43684</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="82" ht="42" customHeight="1" spans="1:4">
       <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+      <c r="B82" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="83" ht="42" customHeight="1" spans="1:4">
       <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+      <c r="B83" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="84" ht="42" customHeight="1" spans="1:4">
       <c r="A84" s="8"/>
@@ -2221,22 +2244,42 @@
       <c r="D84" s="8"/>
     </row>
     <row r="85" ht="42" customHeight="1" spans="1:4">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
+      <c r="A85" s="7">
+        <v>43685</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="86" ht="42" customHeight="1" spans="1:4">
       <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+      <c r="B86" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="87" ht="42" customHeight="1" spans="1:4">
       <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+      <c r="B87" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="88" ht="42" customHeight="1" spans="1:4">
       <c r="A88" s="8"/>
@@ -2245,22 +2288,42 @@
       <c r="D88" s="8"/>
     </row>
     <row r="89" ht="42" customHeight="1" spans="1:4">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+      <c r="A89" s="7">
+        <v>43686</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="90" ht="42" customHeight="1" spans="1:4">
       <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+      <c r="B90" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="91" ht="42" customHeight="1" spans="1:4">
       <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="B91" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="92" ht="42" customHeight="1" spans="1:4">
       <c r="A92" s="8"/>
@@ -2269,51 +2332,261 @@
       <c r="D92" s="8"/>
     </row>
     <row r="93" ht="42" customHeight="1" spans="1:4">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+      <c r="A93" s="7">
+        <v>43687</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="94" ht="42" customHeight="1" spans="1:4">
       <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-    </row>
-    <row r="95" ht="42" customHeight="1"/>
-    <row r="96" ht="42" customHeight="1"/>
-    <row r="97" ht="42" customHeight="1"/>
-    <row r="98" ht="42" customHeight="1"/>
-    <row r="99" ht="42" customHeight="1"/>
-    <row r="100" ht="42" customHeight="1"/>
-    <row r="101" ht="42" customHeight="1"/>
-    <row r="102" ht="42" customHeight="1"/>
-    <row r="103" ht="42" customHeight="1"/>
-    <row r="104" ht="42" customHeight="1"/>
-    <row r="105" ht="42" customHeight="1"/>
-    <row r="106" ht="42" customHeight="1"/>
-    <row r="107" ht="42" customHeight="1"/>
-    <row r="108" ht="42" customHeight="1"/>
-    <row r="109" ht="42" customHeight="1"/>
-    <row r="110" ht="42" customHeight="1"/>
-    <row r="111" ht="42" customHeight="1"/>
-    <row r="112" ht="42" customHeight="1"/>
-    <row r="113" ht="42" customHeight="1"/>
-    <row r="114" ht="42" customHeight="1"/>
-    <row r="115" ht="42" customHeight="1"/>
-    <row r="116" ht="42" customHeight="1"/>
-    <row r="117" ht="42" customHeight="1"/>
-    <row r="118" ht="42" customHeight="1"/>
-    <row r="119" ht="42" customHeight="1"/>
-    <row r="120" ht="42" customHeight="1"/>
-    <row r="121" ht="42" customHeight="1"/>
-    <row r="122" ht="42" customHeight="1"/>
-    <row r="123" ht="42" customHeight="1"/>
-    <row r="124" ht="42" customHeight="1"/>
-    <row r="125" ht="42" customHeight="1"/>
-    <row r="126" ht="42" customHeight="1"/>
-    <row r="127" ht="42" customHeight="1"/>
-    <row r="128" ht="42" customHeight="1"/>
+      <c r="B94" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" ht="42" customHeight="1" spans="1:4">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" ht="42" customHeight="1" spans="1:4">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" ht="42" customHeight="1" spans="1:4">
+      <c r="A97" s="7">
+        <v>43688</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" ht="42" customHeight="1" spans="1:4">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" ht="42" customHeight="1" spans="1:4">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" ht="42" customHeight="1" spans="1:4">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101" ht="42" customHeight="1" spans="1:4">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102" ht="42" customHeight="1" spans="1:4">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" ht="42" customHeight="1" spans="1:4">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104" ht="42" customHeight="1" spans="1:4">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+    </row>
+    <row r="105" ht="42" customHeight="1" spans="1:4">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+    </row>
+    <row r="106" ht="42" customHeight="1" spans="1:4">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" ht="42" customHeight="1" spans="1:4">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" ht="42" customHeight="1" spans="1:4">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" ht="42" customHeight="1" spans="1:4">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+    </row>
+    <row r="110" ht="42" customHeight="1" spans="1:4">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" ht="42" customHeight="1" spans="1:4">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+    </row>
+    <row r="112" ht="42" customHeight="1" spans="1:4">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+    </row>
+    <row r="113" ht="42" customHeight="1" spans="1:4">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+    </row>
+    <row r="114" ht="42" customHeight="1" spans="1:4">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" ht="42" customHeight="1" spans="1:4">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" ht="42" customHeight="1" spans="1:4">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" ht="42" customHeight="1" spans="1:4">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118" ht="42" customHeight="1" spans="1:4">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+    </row>
+    <row r="119" ht="42" customHeight="1" spans="1:4">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" ht="42" customHeight="1" spans="1:4">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" ht="42" customHeight="1" spans="1:4">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+    </row>
+    <row r="122" ht="42" customHeight="1" spans="1:4">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+    </row>
+    <row r="123" ht="42" customHeight="1" spans="1:4">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" ht="42" customHeight="1" spans="1:4">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+    </row>
+    <row r="125" ht="42" customHeight="1" spans="1:4">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+    </row>
+    <row r="126" ht="42" customHeight="1" spans="1:4">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+    </row>
+    <row r="127" ht="42" customHeight="1" spans="1:4">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+    </row>
+    <row r="128" ht="42" customHeight="1" spans="1:4">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/李博文.xlsx
+++ b/doc/log/李博文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="89">
   <si>
     <t>日期</t>
   </si>
@@ -244,6 +244,45 @@
   </si>
   <si>
     <t>使用虚拟环境创建的puyhon3.6n版本来安装Django</t>
+  </si>
+  <si>
+    <t>使用flask重新将后台功能进行封装</t>
+  </si>
+  <si>
+    <t>将前端读取文件内容的功能添加到前端测试去</t>
+  </si>
+  <si>
+    <t>使用搭建好的大型前端框架，来它封装好的request方法</t>
+  </si>
+  <si>
+    <t>测试前端上传文件以及后端读取的功能</t>
+  </si>
+  <si>
+    <t>学习使用SQLALchemy来操作数据库</t>
+  </si>
+  <si>
+    <t>测试前端上传文件以及后端读取并且添加到数据库的流程</t>
+  </si>
+  <si>
+    <t>将后端进行结构化改革，使后端的结构看起来更加的规范，并且将接口进行规范</t>
+  </si>
+  <si>
+    <t>讨论数据库的设计问题，并且将其用SQLALchemy实现</t>
+  </si>
+  <si>
+    <t>测试读取数据并且进行处理并且放入数据库中</t>
+  </si>
+  <si>
+    <t>将后端与查重进行整合</t>
+  </si>
+  <si>
+    <t>一开始使用文件的方式进行查重的结果保存，但出现了编码问题以及结果无法清空</t>
+  </si>
+  <si>
+    <t>解决前端数据传输延迟的问题</t>
+  </si>
+  <si>
+    <t>优化后端代码，并且解决了一些小问题</t>
   </si>
 </sst>
 </file>
@@ -251,10 +290,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -282,20 +321,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -304,7 +335,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,36 +359,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +389,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -388,7 +427,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,15 +458,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,13 +473,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,163 +551,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,6 +706,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -687,15 +759,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -707,30 +770,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,16 +789,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -772,7 +811,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -784,137 +823,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,9 +985,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2370,10 +2406,10 @@
       </c>
     </row>
     <row r="96" ht="42" customHeight="1" spans="1:4">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97" ht="42" customHeight="1" spans="1:4">
       <c r="A97" s="7">
@@ -2383,7 +2419,7 @@
         <v>10</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>9</v>
@@ -2395,7 +2431,7 @@
         <v>60</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>9</v>
@@ -2407,185 +2443,261 @@
         <v>7</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" ht="42" customHeight="1" spans="1:4">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
     </row>
     <row r="101" ht="42" customHeight="1" spans="1:4">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
+      <c r="A101" s="7">
+        <v>43689</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="102" ht="42" customHeight="1" spans="1:4">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="103" ht="42" customHeight="1" spans="1:4">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="104" ht="42" customHeight="1" spans="1:4">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
     </row>
     <row r="105" ht="42" customHeight="1" spans="1:4">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
+      <c r="A105" s="7">
+        <v>43690</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="106" ht="42" customHeight="1" spans="1:4">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="107" ht="42" customHeight="1" spans="1:4">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="108" ht="42" customHeight="1" spans="1:4">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
     </row>
     <row r="109" ht="42" customHeight="1" spans="1:4">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="A109" s="7">
+        <v>43691</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="110" ht="42" customHeight="1" spans="1:4">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="111" ht="42" customHeight="1" spans="1:4">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="112" ht="42" customHeight="1" spans="1:4">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
     </row>
     <row r="113" ht="42" customHeight="1" spans="1:4">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
+      <c r="A113" s="7">
+        <v>43692</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="114" ht="42" customHeight="1" spans="1:4">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="115" ht="42" customHeight="1" spans="1:4">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="116" ht="42" customHeight="1" spans="1:4">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
     </row>
     <row r="117" ht="42" customHeight="1" spans="1:4">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" ht="42" customHeight="1" spans="1:4">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
     </row>
     <row r="119" ht="42" customHeight="1" spans="1:4">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
     </row>
     <row r="120" ht="42" customHeight="1" spans="1:4">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
     </row>
     <row r="121" ht="42" customHeight="1" spans="1:4">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
     </row>
     <row r="122" ht="42" customHeight="1" spans="1:4">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="123" ht="42" customHeight="1" spans="1:4">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
     </row>
     <row r="124" ht="42" customHeight="1" spans="1:4">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
     </row>
     <row r="125" ht="42" customHeight="1" spans="1:4">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
     </row>
     <row r="126" ht="42" customHeight="1" spans="1:4">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
     </row>
     <row r="127" ht="42" customHeight="1" spans="1:4">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" ht="42" customHeight="1" spans="1:4">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
